--- a/biology/Zoologie/Dipsadoboa_flavida/Dipsadoboa_flavida.xlsx
+++ b/biology/Zoologie/Dipsadoboa_flavida/Dipsadoboa_flavida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dipsadoboa flavida est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dipsadoboa flavida est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] dans le sud du Malawi, dans le sud de la Somalie, dans les régions côtières du Kenya et de la Tanzanie, et jusqu'au Sud du Mozambique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le sud du Malawi, dans le sud de la Somalie, dans les régions côtières du Kenya et de la Tanzanie, et jusqu'au Sud du Mozambique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 février 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 février 2014) :
 Dipsadoboa flavida broadleyi Rasmussen, 1989
 Dipsadoboa flavida flavida (Broadley &amp; Stevens, 1971)</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Broadley &amp; Stevens, 1971 : A review of Chamaetortus aulicus Günther, with the description of a new subspecies from Malawi (Serpentes: Colubridae). Arnoldia, vol. 11, no 5, p. 1-11.
 Rasmussen, 1989 : On the taxonomic status of Dipsadoboa aulica aulica Günther and D. aulica flavida Broadley &amp; Stevens, with the description of a new subspecies of D. flavida Broadley &amp; Stevens (Boiginae, Serpentes). Amphibia-Reptilia, vol. 10, p. 35-62.</t>
